--- a/Tesla DCF 10-21-22.xlsx
+++ b/Tesla DCF 10-21-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6379C417-4365-0449-9836-4A964F75F704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB491C4-035E-F84E-B628-28646B8DFF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23780" yWindow="460" windowWidth="27420" windowHeight="26980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="26360" windowHeight="26980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="134">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -326,9 +326,6 @@
     <t>Terminal Value</t>
   </si>
   <si>
-    <t>5 Year Revenue CAGR</t>
-  </si>
-  <si>
     <t>Cost of Debt Calculation</t>
   </si>
   <si>
@@ -432,6 +429,12 @@
   </si>
   <si>
     <t>Upside / Downside</t>
+  </si>
+  <si>
+    <t>10 Year Revenue CAGR</t>
+  </si>
+  <si>
+    <t>Net Income Growth YoY %</t>
   </si>
 </sst>
 </file>
@@ -1077,13 +1080,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC111"/>
+  <dimension ref="A1:AF112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M108" sqref="M108"/>
+      <selection pane="bottomRight" activeCell="S101" sqref="S101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1210,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>53823000000</v>
       </c>
       <c r="T3" s="23" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="19" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -1317,7 +1320,7 @@
         <v>0.14522590184326489</v>
       </c>
       <c r="O4" s="17">
-        <f t="shared" ref="O4:U4" si="1">(O3/N3)-1</f>
+        <f t="shared" ref="O4:P4" si="1">(O3/N3)-1</f>
         <v>0.28309870615998056</v>
       </c>
       <c r="P4" s="17">
@@ -1328,8 +1331,8 @@
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="18">
-        <f>(P4+O4+N4+M4+L4)/5</f>
-        <v>0.52799244701422376</v>
+        <f>(P4+O4+N4+M4+L4+K4+J4+I4+H4+G4)/10</f>
+        <v>0.91192170940531181</v>
       </c>
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
@@ -1938,7 +1941,7 @@
         <v>2911000000</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>9500000000</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>0.17649999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>6523000000</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>0.1212</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>-180000000</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -2238,7 +2241,7 @@
         <v>6343000000</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>0.1178</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>699000000</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
@@ -2388,109 +2391,138 @@
         <v>5519000000</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:32" s="19" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="15" t="e">
+        <f>(B25/A25)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" s="15">
+        <f t="shared" ref="C26:M26" si="2">(C25/B25)-1</f>
+        <v>5.9175761608045274E-2</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.32666521707617602</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="2"/>
+        <v>1.7687118765697885</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="2"/>
+        <v>0.64850837177958631</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="2"/>
+        <v>0.55737369846429585</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.81319643726985236</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="2"/>
+        <v>2.972761909908936</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="2"/>
+        <v>2.0222520745476804</v>
+      </c>
+      <c r="K26" s="16">
+        <f t="shared" si="2"/>
+        <v>-0.24052874936843327</v>
+      </c>
+      <c r="L26" s="16">
+        <f t="shared" si="2"/>
+        <v>1.9061480425654231</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="2"/>
+        <v>-0.50234985214642602</v>
+      </c>
+      <c r="N26" s="17">
+        <f>(N25/M25)-1</f>
+        <v>-0.11688561824665933</v>
+      </c>
+      <c r="O26" s="17">
+        <f t="shared" ref="O26" si="3">(O25/N25)-1</f>
+        <v>-1.8004640371229699</v>
+      </c>
+      <c r="P26" s="17">
+        <f>(P25/O25)-1</f>
+        <v>6.9985507246376812</v>
+      </c>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="18"/>
+      <c r="AF26" s="18"/>
+    </row>
+    <row r="27" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B27" s="2">
         <v>-1070.6438000000001</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="2">
         <v>-5.6154000000000002</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="2">
         <v>-0.49790000000000001</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="2">
         <v>-1.3219000000000001</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="2">
         <v>-1.2456</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G27" s="2">
         <v>-0.95879999999999999</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H27" s="2">
         <v>-3.6799999999999999E-2</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I27" s="2">
         <v>-9.1899999999999996E-2</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J27" s="2">
         <v>-0.21959999999999999</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K27" s="2">
         <v>-9.64E-2</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L27" s="2">
         <v>-0.1668</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M27" s="2">
         <v>-4.5499999999999999E-2</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N27" s="2">
         <v>-3.5099999999999999E-2</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O27" s="2">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P27" s="2">
         <v>0.10249999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B27" s="12">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="C27" s="12">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="D27" s="12">
-        <v>-0.05</v>
-      </c>
-      <c r="E27" s="12">
-        <v>-0.2</v>
-      </c>
-      <c r="F27" s="12">
-        <v>-0.17</v>
-      </c>
-      <c r="G27" s="12">
-        <v>-0.25</v>
-      </c>
-      <c r="H27" s="12">
-        <v>-0.04</v>
-      </c>
-      <c r="I27" s="12">
-        <v>-0.16</v>
-      </c>
-      <c r="J27" s="12">
-        <v>-0.46</v>
-      </c>
-      <c r="K27" s="12">
-        <v>-0.31</v>
-      </c>
-      <c r="L27" s="12">
-        <v>-0.79</v>
-      </c>
-      <c r="M27" s="12">
-        <v>-0.38</v>
-      </c>
-      <c r="N27" s="12">
-        <v>-0.32</v>
-      </c>
-      <c r="O27" s="12">
-        <v>0.24</v>
-      </c>
-      <c r="P27" s="12">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="B28" s="12">
         <v>-7.0000000000000007E-2</v>
@@ -2538,59 +2570,59 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C29" s="12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D29" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="E29" s="12">
+        <v>-0.2</v>
+      </c>
+      <c r="F29" s="12">
+        <v>-0.17</v>
+      </c>
+      <c r="G29" s="12">
+        <v>-0.25</v>
+      </c>
+      <c r="H29" s="12">
+        <v>-0.04</v>
+      </c>
+      <c r="I29" s="12">
+        <v>-0.16</v>
+      </c>
+      <c r="J29" s="12">
+        <v>-0.46</v>
+      </c>
+      <c r="K29" s="12">
+        <v>-0.31</v>
+      </c>
+      <c r="L29" s="12">
+        <v>-0.79</v>
+      </c>
+      <c r="M29" s="12">
+        <v>-0.38</v>
+      </c>
+      <c r="N29" s="12">
+        <v>-0.32</v>
+      </c>
+      <c r="O29" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="P29" s="12">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1169607465</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1169607465</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1165407810</v>
-      </c>
-      <c r="E29" s="1">
-        <v>760774530</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1505832225</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1610235000</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1791315000</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1868595000</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1923030000</v>
-      </c>
-      <c r="K29" s="1">
-        <v>2163180000</v>
-      </c>
-      <c r="L29" s="1">
-        <v>2486370000</v>
-      </c>
-      <c r="M29" s="1">
-        <v>2557875000</v>
-      </c>
-      <c r="N29" s="1">
-        <v>2655000000</v>
-      </c>
-      <c r="O29" s="1">
-        <v>2880000000</v>
-      </c>
-      <c r="P29" s="1">
-        <v>2958000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>1169607465</v>
@@ -2635,689 +2667,684 @@
         <v>2880000000</v>
       </c>
       <c r="P30" s="1">
+        <v>2958000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1169607465</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1169607465</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1165407810</v>
+      </c>
+      <c r="E31" s="1">
+        <v>760774530</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1505832225</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1610235000</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1791315000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1868595000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1923030000</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2163180000</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2486370000</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2557875000</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2655000000</v>
+      </c>
+      <c r="O31" s="1">
+        <v>2880000000</v>
+      </c>
+      <c r="P31" s="1">
         <v>3387000000</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="L32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="N31" s="13" t="s">
+      <c r="N32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="O31" s="13" t="s">
+      <c r="O32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P31" s="13" t="s">
+      <c r="P32" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="40" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:22" ht="40" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O32" s="9" t="s">
+      <c r="O33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="9" t="s">
+      <c r="P33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="T32" s="25" t="s">
+      <c r="T33" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+    </row>
+    <row r="34" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>17211000</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9277000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>69627000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>99558000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>255266000</v>
+      </c>
+      <c r="G34" s="1">
+        <v>201890000</v>
+      </c>
+      <c r="H34" s="1">
+        <v>845889000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1905713000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1196908000</v>
+      </c>
+      <c r="K34" s="1">
+        <v>3393216000</v>
+      </c>
+      <c r="L34" s="1">
+        <v>3367914000</v>
+      </c>
+      <c r="M34" s="1">
+        <v>3685618000</v>
+      </c>
+      <c r="N34" s="1">
+        <v>6268000000</v>
+      </c>
+      <c r="O34" s="1">
+        <v>19384000000</v>
+      </c>
+      <c r="P34" s="1">
+        <v>17576000000</v>
+      </c>
+      <c r="T34" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-    </row>
-    <row r="33" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="1">
-        <v>17211000</v>
-      </c>
-      <c r="C33" s="1">
-        <v>9277000</v>
-      </c>
-      <c r="D33" s="1">
-        <v>69627000</v>
-      </c>
-      <c r="E33" s="1">
-        <v>99558000</v>
-      </c>
-      <c r="F33" s="1">
-        <v>255266000</v>
-      </c>
-      <c r="G33" s="1">
-        <v>201890000</v>
-      </c>
-      <c r="H33" s="1">
-        <v>845889000</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1905713000</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1196908000</v>
-      </c>
-      <c r="K33" s="1">
-        <v>3393216000</v>
-      </c>
-      <c r="L33" s="1">
-        <v>3367914000</v>
-      </c>
-      <c r="M33" s="1">
-        <v>3685618000</v>
-      </c>
-      <c r="N33" s="1">
-        <v>6268000000</v>
-      </c>
-      <c r="O33" s="1">
-        <v>19384000000</v>
-      </c>
-      <c r="P33" s="1">
-        <v>17576000000</v>
-      </c>
-      <c r="T33" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="U33" s="28">
+      <c r="U34" s="28">
         <f>P15</f>
         <v>371000000</v>
       </c>
-      <c r="V33" s="26"/>
-    </row>
-    <row r="34" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="1">
-        <v>25061000</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P34" s="1">
-        <v>131000000</v>
-      </c>
-      <c r="T34" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="U34" s="28">
-        <f>P51</f>
-        <v>1589000000</v>
-      </c>
       <c r="V34" s="26"/>
     </row>
     <row r="35" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="1">
-        <v>17211000</v>
-      </c>
-      <c r="C35" s="1">
-        <v>9277000</v>
-      </c>
-      <c r="D35" s="1">
-        <v>69627000</v>
-      </c>
-      <c r="E35" s="1">
-        <v>99558000</v>
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F35" s="1">
-        <v>280327000</v>
-      </c>
-      <c r="G35" s="1">
-        <v>201890000</v>
-      </c>
-      <c r="H35" s="1">
-        <v>845889000</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1905713000</v>
-      </c>
-      <c r="J35" s="1">
-        <v>1196908000</v>
-      </c>
-      <c r="K35" s="1">
-        <v>3393216000</v>
-      </c>
-      <c r="L35" s="1">
-        <v>3367914000</v>
-      </c>
-      <c r="M35" s="1">
-        <v>3685618000</v>
-      </c>
-      <c r="N35" s="1">
-        <v>6268000000</v>
-      </c>
-      <c r="O35" s="1">
-        <v>19384000000</v>
+        <v>25061000</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="P35" s="1">
-        <v>17707000000</v>
+        <v>131000000</v>
       </c>
       <c r="T35" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U35" s="28">
-        <f>P56</f>
-        <v>5245000000</v>
+        <f>P52</f>
+        <v>1589000000</v>
       </c>
       <c r="V35" s="26"/>
     </row>
     <row r="36" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1">
-        <v>59000</v>
+        <v>17211000</v>
       </c>
       <c r="C36" s="1">
-        <v>3320000</v>
+        <v>9277000</v>
       </c>
       <c r="D36" s="1">
-        <v>3488000</v>
+        <v>69627000</v>
       </c>
       <c r="E36" s="1">
-        <v>6710000</v>
+        <v>99558000</v>
       </c>
       <c r="F36" s="1">
-        <v>9539000</v>
+        <v>280327000</v>
       </c>
       <c r="G36" s="1">
-        <v>26842000</v>
+        <v>201890000</v>
       </c>
       <c r="H36" s="1">
-        <v>49109000</v>
+        <v>845889000</v>
       </c>
       <c r="I36" s="1">
-        <v>226604000</v>
+        <v>1905713000</v>
       </c>
       <c r="J36" s="1">
-        <v>168965000</v>
+        <v>1196908000</v>
       </c>
       <c r="K36" s="1">
-        <v>499142000</v>
+        <v>3393216000</v>
       </c>
       <c r="L36" s="1">
-        <v>515381000</v>
+        <v>3367914000</v>
       </c>
       <c r="M36" s="1">
-        <v>949022000</v>
+        <v>3685618000</v>
       </c>
       <c r="N36" s="1">
-        <v>1324000000</v>
+        <v>6268000000</v>
       </c>
       <c r="O36" s="1">
-        <v>1886000000</v>
+        <v>19384000000</v>
       </c>
       <c r="P36" s="1">
-        <v>1913000000</v>
-      </c>
-      <c r="T36" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="U36" s="29">
-        <f>U33/(U34+U35)</f>
-        <v>5.4287386596429614E-2</v>
+        <v>17707000000</v>
+      </c>
+      <c r="T36" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="U36" s="28">
+        <f>P57</f>
+        <v>5245000000</v>
       </c>
       <c r="V36" s="26"/>
     </row>
     <row r="37" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1">
+        <v>59000</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3320000</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3488000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>6710000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>9539000</v>
+      </c>
+      <c r="G37" s="1">
+        <v>26842000</v>
+      </c>
+      <c r="H37" s="1">
+        <v>49109000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>226604000</v>
+      </c>
+      <c r="J37" s="1">
+        <v>168965000</v>
+      </c>
+      <c r="K37" s="1">
+        <v>499142000</v>
+      </c>
+      <c r="L37" s="1">
+        <v>515381000</v>
+      </c>
+      <c r="M37" s="1">
+        <v>949022000</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1324000000</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1886000000</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1913000000</v>
+      </c>
+      <c r="T37" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="U37" s="29">
+        <f>U34/(U35+U36)</f>
+        <v>5.4287386596429614E-2</v>
+      </c>
+      <c r="V37" s="26"/>
+    </row>
+    <row r="38" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B38" s="1">
         <v>2108000</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38" s="1">
         <v>16650000</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D38" s="1">
         <v>23222000</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E38" s="1">
         <v>45182000</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F38" s="1">
         <v>50082000</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G38" s="1">
         <v>268504000</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H38" s="1">
         <v>340355000</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I38" s="1">
         <v>953675000</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J38" s="1">
         <v>1277838000</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K38" s="1">
         <v>2067454000</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L38" s="1">
         <v>2263537000</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M38" s="1">
         <v>3113446000</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N38" s="1">
         <v>3552000000</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O38" s="1">
         <v>4101000000</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P38" s="1">
         <v>5757000000</v>
       </c>
-      <c r="T37" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="U37" s="28">
+      <c r="T38" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="U38" s="28">
         <f>P24</f>
         <v>699000000</v>
       </c>
-      <c r="V37" s="26"/>
-    </row>
-    <row r="38" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="V38" s="26"/>
+    </row>
+    <row r="39" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="1">
         <v>2930000</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="1">
         <v>2180000</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D39" s="1">
         <v>4222000</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E39" s="1">
         <v>84436000</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F39" s="1">
         <v>32890000</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G39" s="1">
         <v>27532000</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H39" s="1">
         <v>30586000</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I39" s="1">
         <v>112665000</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J39" s="1">
         <v>147857000</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K39" s="1">
         <v>299984000</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L39" s="1">
         <v>423688000</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M39" s="1">
         <v>558222000</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N39" s="1">
         <v>959000000</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O39" s="1">
         <v>1346000000</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P39" s="1">
         <v>1723000000</v>
       </c>
-      <c r="T38" s="27" t="s">
+      <c r="T39" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="U38" s="28">
+      <c r="U39" s="28">
         <f>P22</f>
         <v>6343000000</v>
       </c>
-      <c r="V38" s="26"/>
-    </row>
-    <row r="39" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="V39" s="26"/>
+    </row>
+    <row r="40" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B40" s="10">
         <v>22308000</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C40" s="10">
         <v>31427000</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="10">
         <v>100559000</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E40" s="10">
         <v>235886000</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="10">
         <v>372838000</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G40" s="10">
         <v>524768000</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H40" s="10">
         <v>1265939000</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I40" s="10">
         <v>3198657000</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J40" s="10">
         <v>2791568000</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K40" s="10">
         <v>6259796000</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L40" s="10">
         <v>6570520000</v>
       </c>
-      <c r="M39" s="10">
+      <c r="M40" s="10">
         <v>8306308000</v>
       </c>
-      <c r="N39" s="10">
+      <c r="N40" s="10">
         <v>12103000000</v>
       </c>
-      <c r="O39" s="10">
+      <c r="O40" s="10">
         <v>26717000000</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P40" s="10">
         <v>27100000000</v>
       </c>
-      <c r="T39" s="24" t="s">
+      <c r="T40" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="U40" s="29">
+        <f>U38/U39</f>
+        <v>0.11020022071574964</v>
+      </c>
+      <c r="V40" s="26"/>
+    </row>
+    <row r="41" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1">
+        <v>11998000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>18793000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>23535000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>122599000</v>
+      </c>
+      <c r="F41" s="1">
+        <v>310171000</v>
+      </c>
+      <c r="G41" s="1">
+        <v>562300000</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1120919000</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2596011000</v>
+      </c>
+      <c r="J41" s="1">
+        <v>5194737000</v>
+      </c>
+      <c r="K41" s="1">
+        <v>15036917000</v>
+      </c>
+      <c r="L41" s="1">
+        <v>20491616000</v>
+      </c>
+      <c r="M41" s="1">
+        <v>19691231000</v>
+      </c>
+      <c r="N41" s="1">
+        <v>20199000000</v>
+      </c>
+      <c r="O41" s="1">
+        <v>23375000000</v>
+      </c>
+      <c r="P41" s="1">
+        <v>31176000000</v>
+      </c>
+      <c r="T41" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="U39" s="29">
-        <f>U37/U38</f>
-        <v>0.11020022071574964</v>
-      </c>
-      <c r="V39" s="26"/>
-    </row>
-    <row r="40" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1">
-        <v>11998000</v>
-      </c>
-      <c r="C40" s="1">
-        <v>18793000</v>
-      </c>
-      <c r="D40" s="1">
-        <v>23535000</v>
-      </c>
-      <c r="E40" s="1">
-        <v>122599000</v>
-      </c>
-      <c r="F40" s="1">
-        <v>310171000</v>
-      </c>
-      <c r="G40" s="1">
-        <v>562300000</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1120919000</v>
-      </c>
-      <c r="I40" s="1">
-        <v>2596011000</v>
-      </c>
-      <c r="J40" s="1">
-        <v>5194737000</v>
-      </c>
-      <c r="K40" s="1">
-        <v>15036917000</v>
-      </c>
-      <c r="L40" s="1">
-        <v>20491616000</v>
-      </c>
-      <c r="M40" s="1">
-        <v>19691231000</v>
-      </c>
-      <c r="N40" s="1">
-        <v>20199000000</v>
-      </c>
-      <c r="O40" s="1">
-        <v>23375000000</v>
-      </c>
-      <c r="P40" s="1">
-        <v>31176000000</v>
-      </c>
-      <c r="T40" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="U40" s="29">
-        <f>U36*(1-U39)</f>
+      <c r="U41" s="29">
+        <f>U37*(1-U40)</f>
         <v>4.8304904611421839E-2</v>
       </c>
-      <c r="V40" s="26"/>
-    </row>
-    <row r="41" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="V41" s="26"/>
+    </row>
+    <row r="42" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L41" s="1">
+      <c r="B42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L42" s="1">
         <v>60237000</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M42" s="1">
         <v>68159000</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N42" s="1">
         <v>198000000</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O42" s="1">
         <v>207000000</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P42" s="1">
         <v>200000000</v>
       </c>
-      <c r="T41" s="27"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-    </row>
-    <row r="42" spans="1:22" ht="40" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" s="1">
-        <v>14267000</v>
-      </c>
-      <c r="H42" s="1">
-        <v>13930000</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K42" s="1">
-        <v>376145000</v>
-      </c>
-      <c r="L42" s="1">
-        <v>361502000</v>
-      </c>
-      <c r="M42" s="1">
-        <v>282492000</v>
-      </c>
-      <c r="N42" s="1">
-        <v>339000000</v>
-      </c>
-      <c r="O42" s="1">
-        <v>313000000</v>
-      </c>
-      <c r="P42" s="1">
-        <v>1517000000</v>
-      </c>
-      <c r="T42" s="25" t="s">
-        <v>106</v>
-      </c>
+      <c r="T42" s="27"/>
       <c r="U42" s="26"/>
       <c r="V42" s="26"/>
     </row>
-    <row r="43" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="40" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>92</v>
@@ -3350,31 +3377,29 @@
         <v>376145000</v>
       </c>
       <c r="L43" s="1">
-        <v>421739000</v>
+        <v>361502000</v>
       </c>
       <c r="M43" s="1">
-        <v>350651000</v>
+        <v>282492000</v>
       </c>
       <c r="N43" s="1">
-        <v>537000000</v>
+        <v>339000000</v>
       </c>
       <c r="O43" s="1">
-        <v>520000000</v>
+        <v>313000000</v>
       </c>
       <c r="P43" s="1">
-        <v>1717000000</v>
-      </c>
-      <c r="T43" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="U43" s="30">
-        <v>4.2209999999999998E-2</v>
-      </c>
+        <v>1517000000</v>
+      </c>
+      <c r="T43" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="U43" s="26"/>
       <c r="V43" s="26"/>
     </row>
     <row r="44" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>92</v>
@@ -3391,11 +3416,11 @@
       <c r="F44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>92</v>
+      <c r="G44" s="1">
+        <v>14267000</v>
+      </c>
+      <c r="H44" s="1">
+        <v>13930000</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>92</v>
@@ -3403,35 +3428,35 @@
       <c r="J44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>92</v>
+      <c r="K44" s="1">
+        <v>376145000</v>
+      </c>
+      <c r="L44" s="1">
+        <v>421739000</v>
+      </c>
+      <c r="M44" s="1">
+        <v>350651000</v>
+      </c>
+      <c r="N44" s="1">
+        <v>537000000</v>
+      </c>
+      <c r="O44" s="1">
+        <v>520000000</v>
+      </c>
+      <c r="P44" s="1">
+        <v>1717000000</v>
       </c>
       <c r="T44" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="U44" s="26">
-        <v>2.13</v>
+        <v>106</v>
+      </c>
+      <c r="U44" s="30">
+        <v>4.2209999999999998E-2</v>
       </c>
       <c r="V44" s="26"/>
     </row>
     <row r="45" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>92</v>
@@ -3479,687 +3504,694 @@
         <v>92</v>
       </c>
       <c r="T45" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="U45" s="30">
-        <v>8.5099999999999995E-2</v>
+        <v>107</v>
+      </c>
+      <c r="U45" s="26">
+        <v>2.13</v>
       </c>
       <c r="V45" s="26"/>
     </row>
     <row r="46" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T46" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="U46" s="30">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="V46" s="26"/>
+    </row>
+    <row r="47" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B47" s="1">
         <v>531000</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C47" s="1">
         <v>1479000</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D47" s="1">
         <v>6330000</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E47" s="1">
         <v>27597000</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F47" s="1">
         <v>30439000</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G47" s="1">
         <v>12854000</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H47" s="1">
         <v>16142000</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I47" s="1">
         <v>54583000</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J47" s="1">
         <v>106155000</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K47" s="1">
         <v>991218000</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L47" s="1">
         <v>1171497000</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M47" s="1">
         <v>1391424000</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N47" s="1">
         <v>1470000000</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O47" s="1">
         <v>1536000000</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P47" s="1">
         <v>2138000000</v>
       </c>
-      <c r="T46" s="24" t="s">
+      <c r="T47" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="U47" s="31">
+        <f>(U44)+((U45)*(U46-U44))</f>
+        <v>0.13356569999999998</v>
+      </c>
+      <c r="V47" s="26"/>
+    </row>
+    <row r="48" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1">
+        <v>12529000</v>
+      </c>
+      <c r="C48" s="1">
+        <v>20272000</v>
+      </c>
+      <c r="D48" s="1">
+        <v>29865000</v>
+      </c>
+      <c r="E48" s="1">
+        <v>150196000</v>
+      </c>
+      <c r="F48" s="1">
+        <v>340610000</v>
+      </c>
+      <c r="G48" s="1">
+        <v>589421000</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1150991000</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2650594000</v>
+      </c>
+      <c r="J48" s="1">
+        <v>5300892000</v>
+      </c>
+      <c r="K48" s="1">
+        <v>16404280000</v>
+      </c>
+      <c r="L48" s="1">
+        <v>22084852000</v>
+      </c>
+      <c r="M48" s="1">
+        <v>21433306000</v>
+      </c>
+      <c r="N48" s="1">
+        <v>22206000000</v>
+      </c>
+      <c r="O48" s="1">
+        <v>25431000000</v>
+      </c>
+      <c r="P48" s="1">
+        <v>35031000000</v>
+      </c>
+      <c r="T48" s="27"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+    </row>
+    <row r="49" spans="1:23" ht="40" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T49" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="U46" s="31">
-        <f>(U43)+((U44)*(U45-U43))</f>
-        <v>0.13356569999999998</v>
-      </c>
-      <c r="V46" s="26"/>
-    </row>
-    <row r="47" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="1">
-        <v>12529000</v>
-      </c>
-      <c r="C47" s="1">
-        <v>20272000</v>
-      </c>
-      <c r="D47" s="1">
-        <v>29865000</v>
-      </c>
-      <c r="E47" s="1">
-        <v>150196000</v>
-      </c>
-      <c r="F47" s="1">
-        <v>340610000</v>
-      </c>
-      <c r="G47" s="1">
-        <v>589421000</v>
-      </c>
-      <c r="H47" s="1">
-        <v>1150991000</v>
-      </c>
-      <c r="I47" s="1">
-        <v>2650594000</v>
-      </c>
-      <c r="J47" s="1">
-        <v>5300892000</v>
-      </c>
-      <c r="K47" s="1">
-        <v>16404280000</v>
-      </c>
-      <c r="L47" s="1">
-        <v>22084852000</v>
-      </c>
-      <c r="M47" s="1">
-        <v>21433306000</v>
-      </c>
-      <c r="N47" s="1">
-        <v>22206000000</v>
-      </c>
-      <c r="O47" s="1">
-        <v>25431000000</v>
-      </c>
-      <c r="P47" s="1">
-        <v>35031000000</v>
-      </c>
-      <c r="T47" s="27"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26"/>
-    </row>
-    <row r="48" spans="1:22" ht="40" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T48" s="32" t="s">
+      <c r="U49" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="U48" s="33" t="s">
+      <c r="V49" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="V48" s="33" t="s">
+    </row>
+    <row r="50" spans="1:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="11">
+        <v>34837000</v>
+      </c>
+      <c r="C50" s="11">
+        <v>51699000</v>
+      </c>
+      <c r="D50" s="11">
+        <v>130424000</v>
+      </c>
+      <c r="E50" s="11">
+        <v>386082000</v>
+      </c>
+      <c r="F50" s="11">
+        <v>713448000</v>
+      </c>
+      <c r="G50" s="11">
+        <v>1114189000</v>
+      </c>
+      <c r="H50" s="11">
+        <v>2416930000</v>
+      </c>
+      <c r="I50" s="11">
+        <v>5849251000</v>
+      </c>
+      <c r="J50" s="11">
+        <v>8092460000</v>
+      </c>
+      <c r="K50" s="11">
+        <v>22664076000</v>
+      </c>
+      <c r="L50" s="11">
+        <v>28655372000</v>
+      </c>
+      <c r="M50" s="11">
+        <v>29739614000</v>
+      </c>
+      <c r="N50" s="11">
+        <v>34309000000</v>
+      </c>
+      <c r="O50" s="11">
+        <v>52148000000</v>
+      </c>
+      <c r="P50" s="11">
+        <v>62131000000</v>
+      </c>
+      <c r="T50" s="27" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="11">
-        <v>34837000</v>
-      </c>
-      <c r="C49" s="11">
-        <v>51699000</v>
-      </c>
-      <c r="D49" s="11">
-        <v>130424000</v>
-      </c>
-      <c r="E49" s="11">
-        <v>386082000</v>
-      </c>
-      <c r="F49" s="11">
-        <v>713448000</v>
-      </c>
-      <c r="G49" s="11">
-        <v>1114189000</v>
-      </c>
-      <c r="H49" s="11">
-        <v>2416930000</v>
-      </c>
-      <c r="I49" s="11">
-        <v>5849251000</v>
-      </c>
-      <c r="J49" s="11">
-        <v>8092460000</v>
-      </c>
-      <c r="K49" s="11">
-        <v>22664076000</v>
-      </c>
-      <c r="L49" s="11">
-        <v>28655372000</v>
-      </c>
-      <c r="M49" s="11">
-        <v>29739614000</v>
-      </c>
-      <c r="N49" s="11">
-        <v>34309000000</v>
-      </c>
-      <c r="O49" s="11">
-        <v>52148000000</v>
-      </c>
-      <c r="P49" s="11">
-        <v>62131000000</v>
-      </c>
-      <c r="T49" s="27" t="s">
+      <c r="U50" s="28">
+        <f>U35+U36</f>
+        <v>6834000000</v>
+      </c>
+      <c r="V50" s="34">
+        <f>U50/U52</f>
+        <v>1.0068137453500792E-2</v>
+      </c>
+      <c r="W50" s="35" t="s">
         <v>114</v>
-      </c>
-      <c r="U49" s="28">
-        <f>U34+U35</f>
-        <v>6834000000</v>
-      </c>
-      <c r="V49" s="34">
-        <f>U49/U51</f>
-        <v>1.0068137453500792E-2</v>
-      </c>
-      <c r="W49" s="35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="1">
-        <v>5369000</v>
-      </c>
-      <c r="C50" s="1">
-        <v>14184000</v>
-      </c>
-      <c r="D50" s="1">
-        <v>15086000</v>
-      </c>
-      <c r="E50" s="1">
-        <v>28951000</v>
-      </c>
-      <c r="F50" s="1">
-        <v>56141000</v>
-      </c>
-      <c r="G50" s="1">
-        <v>303382000</v>
-      </c>
-      <c r="H50" s="1">
-        <v>303969000</v>
-      </c>
-      <c r="I50" s="1">
-        <v>777946000</v>
-      </c>
-      <c r="J50" s="1">
-        <v>916148000</v>
-      </c>
-      <c r="K50" s="1">
-        <v>1860341000</v>
-      </c>
-      <c r="L50" s="1">
-        <v>2390250000</v>
-      </c>
-      <c r="M50" s="1">
-        <v>3404451000</v>
-      </c>
-      <c r="N50" s="1">
-        <v>3771000000</v>
-      </c>
-      <c r="O50" s="1">
-        <v>6051000000</v>
-      </c>
-      <c r="P50" s="1">
-        <v>10025000000</v>
-      </c>
-      <c r="T50" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="U50" s="28">
-        <v>671941000000</v>
-      </c>
-      <c r="V50" s="34">
-        <f>U50/U51</f>
-        <v>0.98993186254649923</v>
-      </c>
-      <c r="W50" s="35" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5369000</v>
+      </c>
+      <c r="C51" s="1">
+        <v>14184000</v>
+      </c>
+      <c r="D51" s="1">
+        <v>15086000</v>
+      </c>
+      <c r="E51" s="1">
+        <v>28951000</v>
+      </c>
+      <c r="F51" s="1">
+        <v>56141000</v>
+      </c>
+      <c r="G51" s="1">
+        <v>303382000</v>
+      </c>
+      <c r="H51" s="1">
+        <v>303969000</v>
+      </c>
+      <c r="I51" s="1">
+        <v>777946000</v>
+      </c>
+      <c r="J51" s="1">
+        <v>916148000</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1860341000</v>
+      </c>
+      <c r="L51" s="1">
+        <v>2390250000</v>
+      </c>
+      <c r="M51" s="1">
+        <v>3404451000</v>
+      </c>
+      <c r="N51" s="1">
+        <v>3771000000</v>
+      </c>
+      <c r="O51" s="1">
+        <v>6051000000</v>
+      </c>
+      <c r="P51" s="1">
+        <v>10025000000</v>
+      </c>
+      <c r="T51" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="U51" s="28">
+        <v>671941000000</v>
+      </c>
+      <c r="V51" s="34">
+        <f>U51/U52</f>
+        <v>0.98993186254649923</v>
+      </c>
+      <c r="W51" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B52" s="1">
         <v>80000</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C52" s="1">
         <v>341000</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D52" s="1">
         <v>290000</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E52" s="1">
         <v>279000</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F52" s="1">
         <v>8983000</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G52" s="1">
         <v>55206000</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H52" s="1">
         <v>7904000</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I52" s="1">
         <v>632128000</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J52" s="1">
         <v>633166000</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K52" s="1">
         <v>1202178000</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L52" s="1">
         <v>963862000</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M52" s="1">
         <v>2711199000</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N52" s="1">
         <v>2070000000</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O52" s="1">
         <v>2132000000</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P52" s="1">
         <v>1589000000</v>
       </c>
-      <c r="T51" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="U51" s="28">
-        <f>U49+U50</f>
+      <c r="T52" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="U52" s="28">
+        <f>U50+U51</f>
         <v>678775000000</v>
       </c>
-      <c r="V51" s="26"/>
-    </row>
-    <row r="52" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="V52" s="26"/>
+    </row>
+    <row r="53" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="B53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="1">
         <v>2674000</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F53" s="1">
         <v>967000</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G53" s="1">
         <v>9710000</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H53" s="1">
         <v>38067000</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I53" s="1">
         <v>71229000</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J53" s="1">
         <v>101206000</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K53" s="1">
         <v>152897000</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L53" s="1">
         <v>185807000</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M53" s="1">
         <v>348663000</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N53" s="1">
         <v>611000000</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O53" s="1">
         <v>777000000</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P53" s="1">
         <v>1122000000</v>
       </c>
-      <c r="T52" s="27"/>
-      <c r="U52" s="26"/>
-      <c r="V52" s="26"/>
-    </row>
-    <row r="53" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="1">
-        <v>4073000</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1377000</v>
-      </c>
-      <c r="E53" s="1">
-        <v>4635000</v>
-      </c>
-      <c r="F53" s="1">
-        <v>2345000</v>
-      </c>
-      <c r="G53" s="1">
-        <v>140722000</v>
-      </c>
-      <c r="H53" s="1">
-        <v>255035000</v>
-      </c>
-      <c r="I53" s="1">
-        <v>449238000</v>
-      </c>
-      <c r="J53" s="1">
-        <v>707331000</v>
-      </c>
-      <c r="K53" s="1">
-        <v>1426985000</v>
-      </c>
-      <c r="L53" s="1">
-        <v>1869172000</v>
-      </c>
-      <c r="M53" s="1">
-        <v>1422893000</v>
-      </c>
-      <c r="N53" s="1">
-        <v>1889000000</v>
-      </c>
-      <c r="O53" s="1">
-        <v>2210000000</v>
-      </c>
-      <c r="P53" s="1">
-        <v>2372000000</v>
-      </c>
-      <c r="T53" s="36" t="s">
-        <v>119</v>
-      </c>
+      <c r="T53" s="27"/>
       <c r="U53" s="26"/>
       <c r="V53" s="26"/>
     </row>
     <row r="54" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4073000</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1377000</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4635000</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2345000</v>
+      </c>
+      <c r="G54" s="1">
+        <v>140722000</v>
+      </c>
+      <c r="H54" s="1">
+        <v>255035000</v>
+      </c>
+      <c r="I54" s="1">
+        <v>449238000</v>
+      </c>
+      <c r="J54" s="1">
+        <v>707331000</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1426985000</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1869172000</v>
+      </c>
+      <c r="M54" s="1">
+        <v>1422893000</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1889000000</v>
+      </c>
+      <c r="O54" s="1">
+        <v>2210000000</v>
+      </c>
+      <c r="P54" s="1">
+        <v>2372000000</v>
+      </c>
+      <c r="T54" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="U54" s="26"/>
+      <c r="V54" s="26"/>
+    </row>
+    <row r="55" spans="1:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B55" s="1">
         <v>45847000</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C55" s="1">
         <v>69337000</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D55" s="1">
         <v>40736000</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E55" s="1">
         <v>51700000</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F55" s="1">
         <v>123870000</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G55" s="1">
         <v>39798000</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H55" s="1">
         <v>108252000</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I55" s="1">
         <v>247854000</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J55" s="1">
         <v>559629000</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K55" s="1">
         <v>1337501000</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L55" s="1">
         <v>2451386000</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M55" s="1">
         <v>2453593000</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N55" s="1">
         <v>2937000000</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O55" s="1">
         <v>3855000000</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P55" s="1">
         <v>5719000000</v>
       </c>
-      <c r="T54" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="U54" s="29">
-        <f>(V49*U36)+(V50*U46)</f>
+      <c r="T55" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="U55" s="29">
+        <f>(V50*U37)+(V51*U47)</f>
         <v>0.13276751504357112</v>
       </c>
-      <c r="V54" s="26"/>
-    </row>
-    <row r="55" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="V55" s="26"/>
+    </row>
+    <row r="56" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B56" s="10">
         <v>51296000</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C56" s="10">
         <v>87935000</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D56" s="10">
         <v>57489000</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E56" s="10">
         <v>85565000</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F56" s="10">
         <v>191339000</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G56" s="10">
         <v>539108000</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H56" s="10">
         <v>675160000</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I56" s="10">
         <v>2107166000</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J56" s="10">
         <v>2816274000</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K56" s="10">
         <v>5827005000</v>
       </c>
-      <c r="L55" s="10">
+      <c r="L56" s="10">
         <v>7674670000</v>
       </c>
-      <c r="M55" s="10">
+      <c r="M56" s="10">
         <v>9992136000</v>
       </c>
-      <c r="N55" s="10">
+      <c r="N56" s="10">
         <v>10667000000</v>
       </c>
-      <c r="O55" s="10">
+      <c r="O56" s="10">
         <v>14248000000</v>
       </c>
-      <c r="P55" s="10">
+      <c r="P56" s="10">
         <v>19705000000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="1">
-        <v>54528000</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="1">
-        <v>71828000</v>
-      </c>
-      <c r="F56" s="1">
-        <v>268335000</v>
-      </c>
-      <c r="G56" s="1">
-        <v>401495000</v>
-      </c>
-      <c r="H56" s="1">
-        <v>586119000</v>
-      </c>
-      <c r="I56" s="1">
-        <v>1864714000</v>
-      </c>
-      <c r="J56" s="1">
-        <v>2082420000</v>
-      </c>
-      <c r="K56" s="1">
-        <v>5978284000</v>
-      </c>
-      <c r="L56" s="1">
-        <v>9418389000</v>
-      </c>
-      <c r="M56" s="1">
-        <v>9403672000</v>
-      </c>
-      <c r="N56" s="1">
-        <v>11634000000</v>
-      </c>
-      <c r="O56" s="1">
-        <v>9556000000</v>
-      </c>
-      <c r="P56" s="1">
-        <v>5245000000</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1240000</v>
+      <c r="C57" s="1">
+        <v>54528000</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E57" s="1">
-        <v>2783000</v>
+        <v>71828000</v>
       </c>
       <c r="F57" s="1">
-        <v>3146000</v>
+        <v>268335000</v>
       </c>
       <c r="G57" s="1">
-        <v>3060000</v>
+        <v>401495000</v>
       </c>
       <c r="H57" s="1">
-        <v>181180000</v>
+        <v>586119000</v>
       </c>
       <c r="I57" s="1">
-        <v>292271000</v>
+        <v>1864714000</v>
       </c>
       <c r="J57" s="1">
-        <v>446105000</v>
+        <v>2082420000</v>
       </c>
       <c r="K57" s="1">
-        <v>851790000</v>
+        <v>5978284000</v>
       </c>
       <c r="L57" s="1">
-        <v>1177799000</v>
+        <v>9418389000</v>
       </c>
       <c r="M57" s="1">
-        <v>990873000</v>
+        <v>9403672000</v>
       </c>
       <c r="N57" s="1">
-        <v>1207000000</v>
+        <v>11634000000</v>
       </c>
       <c r="O57" s="1">
-        <v>1284000000</v>
+        <v>9556000000</v>
       </c>
       <c r="P57" s="1">
-        <v>2052000000</v>
+        <v>5245000000</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>92</v>
@@ -4167,2293 +4199,2343 @@
       <c r="C58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>92</v>
+      <c r="D58" s="1">
+        <v>1240000</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2783000</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3146000</v>
+      </c>
+      <c r="G58" s="1">
+        <v>3060000</v>
       </c>
       <c r="H58" s="1">
-        <v>6821000</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>181180000</v>
+      </c>
+      <c r="I58" s="1">
+        <v>292271000</v>
+      </c>
+      <c r="J58" s="1">
+        <v>446105000</v>
+      </c>
+      <c r="K58" s="1">
+        <v>851790000</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1177799000</v>
+      </c>
+      <c r="M58" s="1">
+        <v>990873000</v>
+      </c>
+      <c r="N58" s="1">
+        <v>1207000000</v>
       </c>
       <c r="O58" s="1">
-        <v>151000000</v>
+        <v>1284000000</v>
       </c>
       <c r="P58" s="1">
-        <v>24000000</v>
+        <v>2052000000</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="1">
-        <v>101387000</v>
-      </c>
-      <c r="C59" s="1">
-        <v>108950000</v>
-      </c>
-      <c r="D59" s="1">
-        <v>325218000</v>
-      </c>
-      <c r="E59" s="1">
-        <v>18858000</v>
-      </c>
-      <c r="F59" s="1">
-        <v>26583000</v>
-      </c>
-      <c r="G59" s="1">
-        <v>45827000</v>
+        <v>54</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H59" s="1">
-        <v>300530000</v>
-      </c>
-      <c r="I59" s="1">
-        <v>673390000</v>
-      </c>
-      <c r="J59" s="1">
-        <v>1658717000</v>
-      </c>
-      <c r="K59" s="1">
-        <v>4468911000</v>
-      </c>
-      <c r="L59" s="1">
-        <v>5149926000</v>
-      </c>
-      <c r="M59" s="1">
-        <v>3595293000</v>
-      </c>
-      <c r="N59" s="1">
-        <v>3334000000</v>
+        <v>6821000</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="O59" s="1">
-        <v>3834000000</v>
+        <v>151000000</v>
       </c>
       <c r="P59" s="1">
-        <v>4090000000</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1">
         <v>101387000</v>
       </c>
       <c r="C60" s="1">
-        <v>163478000</v>
+        <v>108950000</v>
       </c>
       <c r="D60" s="1">
-        <v>326458000</v>
+        <v>325218000</v>
       </c>
       <c r="E60" s="1">
-        <v>93469000</v>
+        <v>18858000</v>
       </c>
       <c r="F60" s="1">
-        <v>298064000</v>
+        <v>26583000</v>
       </c>
       <c r="G60" s="1">
-        <v>450382000</v>
+        <v>45827000</v>
       </c>
       <c r="H60" s="1">
-        <v>1074650000</v>
+        <v>300530000</v>
       </c>
       <c r="I60" s="1">
-        <v>2830375000</v>
+        <v>673390000</v>
       </c>
       <c r="J60" s="1">
-        <v>4187242000</v>
+        <v>1658717000</v>
       </c>
       <c r="K60" s="1">
-        <v>11298985000</v>
+        <v>4468911000</v>
       </c>
       <c r="L60" s="1">
-        <v>15746114000</v>
+        <v>5149926000</v>
       </c>
       <c r="M60" s="1">
-        <v>13989838000</v>
+        <v>3595293000</v>
       </c>
       <c r="N60" s="1">
-        <v>16175000000</v>
+        <v>3334000000</v>
       </c>
       <c r="O60" s="1">
-        <v>14825000000</v>
+        <v>3834000000</v>
       </c>
       <c r="P60" s="1">
-        <v>11411000000</v>
+        <v>4090000000</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="1">
+        <v>101387000</v>
+      </c>
+      <c r="C61" s="1">
+        <v>163478000</v>
+      </c>
+      <c r="D61" s="1">
+        <v>326458000</v>
+      </c>
+      <c r="E61" s="1">
+        <v>93469000</v>
+      </c>
+      <c r="F61" s="1">
+        <v>298064000</v>
+      </c>
+      <c r="G61" s="1">
+        <v>450382000</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1074650000</v>
+      </c>
+      <c r="I61" s="1">
+        <v>2830375000</v>
+      </c>
+      <c r="J61" s="1">
+        <v>4187242000</v>
+      </c>
+      <c r="K61" s="1">
+        <v>11298985000</v>
+      </c>
+      <c r="L61" s="1">
+        <v>15746114000</v>
+      </c>
+      <c r="M61" s="1">
+        <v>13989838000</v>
+      </c>
+      <c r="N61" s="1">
+        <v>16175000000</v>
+      </c>
+      <c r="O61" s="1">
+        <v>14825000000</v>
+      </c>
+      <c r="P61" s="1">
+        <v>11411000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="B62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B63" s="10">
         <v>152683000</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C63" s="10">
         <v>251413000</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D63" s="10">
         <v>383947000</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E63" s="10">
         <v>179034000</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F63" s="10">
         <v>489403000</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G63" s="10">
         <v>989490000</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H63" s="10">
         <v>1749810000</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I63" s="10">
         <v>4937541000</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J63" s="10">
         <v>7003516000</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K63" s="10">
         <v>17125990000</v>
       </c>
-      <c r="L62" s="10">
+      <c r="L63" s="10">
         <v>23420784000</v>
       </c>
-      <c r="M62" s="10">
+      <c r="M63" s="10">
         <v>23981974000</v>
       </c>
-      <c r="N62" s="10">
+      <c r="N63" s="10">
         <v>26842000000</v>
       </c>
-      <c r="O62" s="10">
+      <c r="O63" s="10">
         <v>29073000000</v>
       </c>
-      <c r="P62" s="10">
+      <c r="P63" s="10">
         <v>31116000000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="1">
-        <v>18000</v>
-      </c>
-      <c r="C63" s="1">
-        <v>21000</v>
-      </c>
-      <c r="D63" s="1">
-        <v>7000</v>
-      </c>
-      <c r="E63" s="1">
-        <v>95000</v>
-      </c>
-      <c r="F63" s="1">
-        <v>104000</v>
-      </c>
-      <c r="G63" s="1">
-        <v>115000</v>
-      </c>
-      <c r="H63" s="1">
-        <v>123000</v>
-      </c>
-      <c r="I63" s="1">
-        <v>126000</v>
-      </c>
-      <c r="J63" s="1">
-        <v>131000</v>
-      </c>
-      <c r="K63" s="1">
-        <v>161000</v>
-      </c>
-      <c r="L63" s="1">
-        <v>169000</v>
-      </c>
-      <c r="M63" s="1">
-        <v>173000</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O63" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="P63" s="1">
-        <v>1000000</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="1">
-        <v>-122132000</v>
+        <v>18000</v>
       </c>
       <c r="C64" s="1">
-        <v>-204914000</v>
+        <v>21000</v>
       </c>
       <c r="D64" s="1">
-        <v>-260654000</v>
+        <v>7000</v>
       </c>
       <c r="E64" s="1">
-        <v>-414982000</v>
+        <v>95000</v>
       </c>
       <c r="F64" s="1">
-        <v>-669392000</v>
+        <v>104000</v>
       </c>
       <c r="G64" s="1">
-        <v>-1065606000</v>
+        <v>115000</v>
       </c>
       <c r="H64" s="1">
-        <v>-1139620000</v>
+        <v>123000</v>
       </c>
       <c r="I64" s="1">
-        <v>-1433682000</v>
+        <v>126000</v>
       </c>
       <c r="J64" s="1">
-        <v>-2322323000</v>
+        <v>131000</v>
       </c>
       <c r="K64" s="1">
-        <v>-2997237000</v>
+        <v>161000</v>
       </c>
       <c r="L64" s="1">
-        <v>-4974299000</v>
+        <v>169000</v>
       </c>
       <c r="M64" s="1">
-        <v>-5317832000</v>
-      </c>
-      <c r="N64" s="1">
-        <v>-6083000000</v>
+        <v>173000</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="O64" s="1">
-        <v>-5399000000</v>
+        <v>1000000</v>
       </c>
       <c r="P64" s="1">
-        <v>331000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="1">
-        <v>-3198000</v>
+        <v>-122132000</v>
       </c>
       <c r="C65" s="1">
-        <v>-6826000</v>
+        <v>-204914000</v>
       </c>
       <c r="D65" s="1">
-        <v>-12730000</v>
+        <v>-260654000</v>
       </c>
       <c r="E65" s="1">
-        <v>-21993000</v>
+        <v>-414982000</v>
       </c>
       <c r="F65" s="1">
-        <v>-3000</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>-669392000</v>
+      </c>
+      <c r="G65" s="1">
+        <v>-1065606000</v>
       </c>
       <c r="H65" s="1">
-        <v>-140142000</v>
+        <v>-1139620000</v>
       </c>
       <c r="I65" s="1">
-        <v>-292590000</v>
+        <v>-1433682000</v>
       </c>
       <c r="J65" s="1">
-        <v>-3556000</v>
+        <v>-2322323000</v>
       </c>
       <c r="K65" s="1">
-        <v>-23740000</v>
+        <v>-2997237000</v>
       </c>
       <c r="L65" s="1">
-        <v>33348000</v>
+        <v>-4974299000</v>
       </c>
       <c r="M65" s="1">
-        <v>-8218000</v>
+        <v>-5317832000</v>
       </c>
       <c r="N65" s="1">
-        <v>-36000000</v>
+        <v>-6083000000</v>
       </c>
       <c r="O65" s="1">
-        <v>363000000</v>
+        <v>-5399000000</v>
       </c>
       <c r="P65" s="1">
-        <v>54000000</v>
+        <v>331000000</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="1">
+        <v>-3198000</v>
+      </c>
+      <c r="C66" s="1">
+        <v>-6826000</v>
+      </c>
+      <c r="D66" s="1">
+        <v>-12730000</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-21993000</v>
+      </c>
+      <c r="F66" s="1">
+        <v>-3000</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" s="1">
+        <v>-140142000</v>
+      </c>
+      <c r="I66" s="1">
+        <v>-292590000</v>
+      </c>
+      <c r="J66" s="1">
+        <v>-3556000</v>
+      </c>
+      <c r="K66" s="1">
+        <v>-23740000</v>
+      </c>
+      <c r="L66" s="1">
+        <v>33348000</v>
+      </c>
+      <c r="M66" s="1">
+        <v>-8218000</v>
+      </c>
+      <c r="N66" s="1">
+        <v>-36000000</v>
+      </c>
+      <c r="O66" s="1">
+        <v>363000000</v>
+      </c>
+      <c r="P66" s="1">
+        <v>54000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B67" s="1">
         <v>7466000</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C67" s="1">
         <v>12005000</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D67" s="1">
         <v>19854000</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E67" s="1">
         <v>643928000</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F67" s="1">
         <v>893336000</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G67" s="1">
         <v>1190191000</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H67" s="1">
         <v>1946759000</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I67" s="1">
         <v>2637856000</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J67" s="1">
         <v>3414692000</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K67" s="1">
         <v>7773727000</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L67" s="1">
         <v>9178024000</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M67" s="1">
         <v>10249120000</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N67" s="1">
         <v>12737000000</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O67" s="1">
         <v>27260000000</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P67" s="1">
         <v>29803000000</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+    <row r="68" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B68" s="10">
         <v>-117846000</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C68" s="10">
         <v>-199714000</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D68" s="10">
         <v>-253523000</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E68" s="10">
         <v>207048000</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>224045000</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G68" s="10">
         <v>124700000</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H68" s="10">
         <v>667120000</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I68" s="10">
         <v>911710000</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J68" s="10">
         <v>1088944000</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K68" s="10">
         <v>4752911000</v>
       </c>
-      <c r="L67" s="10">
+      <c r="L68" s="10">
         <v>4237242000</v>
       </c>
-      <c r="M67" s="10">
+      <c r="M68" s="10">
         <v>4923243000</v>
       </c>
-      <c r="N67" s="10">
+      <c r="N68" s="10">
         <v>6618000000</v>
       </c>
-      <c r="O67" s="10">
+      <c r="O68" s="10">
         <v>22225000000</v>
       </c>
-      <c r="P67" s="10">
+      <c r="P68" s="10">
         <v>30189000000</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+    <row r="69" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B69" s="11">
         <v>34837000</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C69" s="11">
         <v>51699000</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>130424000</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>386082000</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>713448000</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G69" s="11">
         <v>1114190000</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H69" s="11">
         <v>2416930000</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I69" s="11">
         <v>5849251000</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J69" s="11">
         <v>8092460000</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K69" s="11">
         <v>21878901000</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L69" s="11">
         <v>27658026000</v>
       </c>
-      <c r="M68" s="11">
+      <c r="M69" s="11">
         <v>28905217000</v>
       </c>
-      <c r="N68" s="11">
+      <c r="N69" s="11">
         <v>33460000000</v>
       </c>
-      <c r="O68" s="11">
+      <c r="O69" s="11">
         <v>51298000000</v>
       </c>
-      <c r="P68" s="11">
+      <c r="P69" s="11">
         <v>61305000000</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="70" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="G70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="H70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I69" s="13" t="s">
+      <c r="I70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J69" s="13" t="s">
+      <c r="J70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="K69" s="13" t="s">
+      <c r="K70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="L69" s="13" t="s">
+      <c r="L70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="M69" s="13" t="s">
+      <c r="M70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="N69" s="13" t="s">
+      <c r="N70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="O69" s="13" t="s">
+      <c r="O70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P69" s="13" t="s">
+      <c r="P70" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="I71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="J71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K70" s="9" t="s">
+      <c r="K71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="L70" s="9" t="s">
+      <c r="L71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="M70" s="9" t="s">
+      <c r="M71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N70" s="9" t="s">
+      <c r="N71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O70" s="9" t="s">
+      <c r="O71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="P70" s="9" t="s">
+      <c r="P71" s="9" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="1">
-        <v>-78157000</v>
-      </c>
-      <c r="C71" s="1">
-        <v>-82782000</v>
-      </c>
-      <c r="D71" s="1">
-        <v>-55740000</v>
-      </c>
-      <c r="E71" s="1">
-        <v>-154328000</v>
-      </c>
-      <c r="F71" s="1">
-        <v>-254411000</v>
-      </c>
-      <c r="G71" s="1">
-        <v>-396213000</v>
-      </c>
-      <c r="H71" s="1">
-        <v>-74014000</v>
-      </c>
-      <c r="I71" s="1">
-        <v>-294040000</v>
-      </c>
-      <c r="J71" s="1">
-        <v>-888663000</v>
-      </c>
-      <c r="K71" s="1">
-        <v>-674914000</v>
-      </c>
-      <c r="L71" s="1">
-        <v>-1961400000</v>
-      </c>
-      <c r="M71" s="1">
-        <v>-976091000</v>
-      </c>
-      <c r="N71" s="1">
-        <v>-862000000</v>
-      </c>
-      <c r="O71" s="1">
-        <v>690000000</v>
-      </c>
-      <c r="P71" s="1">
-        <v>5519000000</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="B72" s="1">
-        <v>2895000</v>
+        <v>-78157000</v>
       </c>
       <c r="C72" s="1">
-        <v>4157000</v>
+        <v>-82782000</v>
       </c>
       <c r="D72" s="1">
-        <v>6940000</v>
+        <v>-55740000</v>
       </c>
       <c r="E72" s="1">
-        <v>10623000</v>
+        <v>-154328000</v>
       </c>
       <c r="F72" s="1">
-        <v>16919000</v>
+        <v>-254411000</v>
       </c>
       <c r="G72" s="1">
-        <v>28825000</v>
+        <v>-396213000</v>
       </c>
       <c r="H72" s="1">
-        <v>106083000</v>
+        <v>-74014000</v>
       </c>
       <c r="I72" s="1">
-        <v>231931000</v>
+        <v>-294040000</v>
       </c>
       <c r="J72" s="1">
-        <v>422590000</v>
+        <v>-888663000</v>
       </c>
       <c r="K72" s="1">
-        <v>947099000</v>
+        <v>-674914000</v>
       </c>
       <c r="L72" s="1">
-        <v>1636003000</v>
+        <v>-1961400000</v>
       </c>
       <c r="M72" s="1">
-        <v>1901050000</v>
+        <v>-976091000</v>
       </c>
       <c r="N72" s="1">
-        <v>2154000000</v>
+        <v>-862000000</v>
       </c>
       <c r="O72" s="1">
-        <v>2322000000</v>
+        <v>690000000</v>
       </c>
       <c r="P72" s="1">
-        <v>2911000000</v>
+        <v>5519000000</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2895000</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4157000</v>
+      </c>
+      <c r="D73" s="1">
+        <v>6940000</v>
+      </c>
+      <c r="E73" s="1">
+        <v>10623000</v>
+      </c>
+      <c r="F73" s="1">
+        <v>16919000</v>
+      </c>
+      <c r="G73" s="1">
+        <v>28825000</v>
+      </c>
+      <c r="H73" s="1">
+        <v>106083000</v>
+      </c>
+      <c r="I73" s="1">
+        <v>231931000</v>
+      </c>
+      <c r="J73" s="1">
+        <v>422590000</v>
+      </c>
+      <c r="K73" s="1">
+        <v>947099000</v>
+      </c>
+      <c r="L73" s="1">
+        <v>1636003000</v>
+      </c>
+      <c r="M73" s="1">
+        <v>1901050000</v>
+      </c>
+      <c r="N73" s="1">
+        <v>2154000000</v>
+      </c>
+      <c r="O73" s="1">
+        <v>2322000000</v>
+      </c>
+      <c r="P73" s="1">
+        <v>2911000000</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B74" s="1">
-        <v>198000</v>
-      </c>
-      <c r="C74" s="1">
-        <v>437000</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1434000</v>
-      </c>
-      <c r="E74" s="1">
-        <v>21156000</v>
-      </c>
-      <c r="F74" s="1">
-        <v>29419000</v>
-      </c>
-      <c r="G74" s="1">
-        <v>50145000</v>
-      </c>
-      <c r="H74" s="1">
-        <v>80737000</v>
-      </c>
-      <c r="I74" s="1">
-        <v>156496000</v>
-      </c>
-      <c r="J74" s="1">
-        <v>197999000</v>
-      </c>
-      <c r="K74" s="1">
-        <v>334225000</v>
-      </c>
-      <c r="L74" s="1">
-        <v>466760000</v>
-      </c>
-      <c r="M74" s="1">
-        <v>749024000</v>
-      </c>
-      <c r="N74" s="1">
-        <v>898000000</v>
-      </c>
-      <c r="O74" s="1">
-        <v>1734000000</v>
-      </c>
-      <c r="P74" s="1">
-        <v>2121000000</v>
+        <v>67</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" s="1">
-        <v>19210000</v>
+        <v>198000</v>
       </c>
       <c r="C75" s="1">
-        <v>20529000</v>
+        <v>437000</v>
       </c>
       <c r="D75" s="1">
-        <v>-37543000</v>
+        <v>1434000</v>
       </c>
       <c r="E75" s="1">
-        <v>-11175000</v>
+        <v>21156000</v>
       </c>
       <c r="F75" s="1">
-        <v>88897000</v>
+        <v>29419000</v>
       </c>
       <c r="G75" s="1">
-        <v>42819000</v>
+        <v>50145000</v>
       </c>
       <c r="H75" s="1">
-        <v>124995000</v>
+        <v>80737000</v>
       </c>
       <c r="I75" s="1">
-        <v>-256825000</v>
+        <v>156496000</v>
       </c>
       <c r="J75" s="1">
-        <v>-493289000</v>
+        <v>197999000</v>
       </c>
       <c r="K75" s="1">
-        <v>-693861000</v>
+        <v>334225000</v>
       </c>
       <c r="L75" s="1">
-        <v>-496603000</v>
+        <v>466760000</v>
       </c>
       <c r="M75" s="1">
-        <v>57951000</v>
+        <v>749024000</v>
       </c>
       <c r="N75" s="1">
-        <v>-349000000</v>
+        <v>898000000</v>
       </c>
       <c r="O75" s="1">
-        <v>184000000</v>
+        <v>1734000000</v>
       </c>
       <c r="P75" s="1">
-        <v>518000000</v>
+        <v>2121000000</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="1">
-        <v>-59000</v>
+        <v>19210000</v>
       </c>
       <c r="C76" s="1">
-        <v>-3261000</v>
+        <v>20529000</v>
       </c>
       <c r="D76" s="1">
-        <v>-168000</v>
+        <v>-37543000</v>
       </c>
       <c r="E76" s="1">
-        <v>-3222000</v>
+        <v>-11175000</v>
       </c>
       <c r="F76" s="1">
-        <v>-2829000</v>
+        <v>88897000</v>
       </c>
       <c r="G76" s="1">
-        <v>-17303000</v>
+        <v>42819000</v>
       </c>
       <c r="H76" s="1">
-        <v>-21917000</v>
+        <v>124995000</v>
       </c>
       <c r="I76" s="1">
-        <v>-183658000</v>
+        <v>-256825000</v>
       </c>
       <c r="J76" s="1">
-        <v>46267000</v>
+        <v>-493289000</v>
       </c>
       <c r="K76" s="1">
-        <v>-216565000</v>
+        <v>-693861000</v>
       </c>
       <c r="L76" s="1">
-        <v>-24635000</v>
+        <v>-496603000</v>
       </c>
       <c r="M76" s="1">
-        <v>-496732000</v>
+        <v>57951000</v>
       </c>
       <c r="N76" s="1">
-        <v>-367000000</v>
+        <v>-349000000</v>
       </c>
       <c r="O76" s="1">
-        <v>-652000000</v>
+        <v>184000000</v>
       </c>
       <c r="P76" s="1">
-        <v>-130000000</v>
+        <v>518000000</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B77" s="1">
-        <v>-2108000</v>
+        <v>-59000</v>
       </c>
       <c r="C77" s="1">
-        <v>-14542000</v>
+        <v>-3261000</v>
       </c>
       <c r="D77" s="1">
-        <v>-7925000</v>
+        <v>-168000</v>
       </c>
       <c r="E77" s="1">
-        <v>-20115000</v>
+        <v>-3222000</v>
       </c>
       <c r="F77" s="1">
-        <v>-13638000</v>
+        <v>-2829000</v>
       </c>
       <c r="G77" s="1">
-        <v>-194726000</v>
+        <v>-17303000</v>
       </c>
       <c r="H77" s="1">
-        <v>-463270000</v>
+        <v>-21917000</v>
       </c>
       <c r="I77" s="1">
-        <v>-1050264000</v>
+        <v>-183658000</v>
       </c>
       <c r="J77" s="1">
-        <v>-1573860000</v>
+        <v>46267000</v>
       </c>
       <c r="K77" s="1">
-        <v>-2465703000</v>
+        <v>-216565000</v>
       </c>
       <c r="L77" s="1">
-        <v>-178850000</v>
+        <v>-24635000</v>
       </c>
       <c r="M77" s="1">
-        <v>-1023264000</v>
+        <v>-496732000</v>
       </c>
       <c r="N77" s="1">
-        <v>-429000000</v>
+        <v>-367000000</v>
       </c>
       <c r="O77" s="1">
-        <v>-422000000</v>
+        <v>-652000000</v>
       </c>
       <c r="P77" s="1">
-        <v>-1709000000</v>
+        <v>-130000000</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B78" s="1">
-        <v>523000</v>
+        <v>-2108000</v>
       </c>
       <c r="C78" s="1">
-        <v>8815000</v>
+        <v>-14542000</v>
       </c>
       <c r="D78" s="1">
-        <v>902000</v>
+        <v>-7925000</v>
       </c>
       <c r="E78" s="1">
-        <v>-212000</v>
+        <v>-20115000</v>
       </c>
       <c r="F78" s="1">
-        <v>31859000</v>
+        <v>-13638000</v>
       </c>
       <c r="G78" s="1">
-        <v>187821000</v>
+        <v>-194726000</v>
       </c>
       <c r="H78" s="1">
-        <v>-243000</v>
+        <v>-463270000</v>
       </c>
       <c r="I78" s="1">
-        <v>252781000</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>92</v>
+        <v>-1050264000</v>
+      </c>
+      <c r="J78" s="1">
+        <v>-1573860000</v>
+      </c>
+      <c r="K78" s="1">
+        <v>-2465703000</v>
+      </c>
+      <c r="L78" s="1">
+        <v>-178850000</v>
+      </c>
+      <c r="M78" s="1">
+        <v>-1023264000</v>
+      </c>
+      <c r="N78" s="1">
+        <v>-429000000</v>
+      </c>
+      <c r="O78" s="1">
+        <v>-422000000</v>
+      </c>
+      <c r="P78" s="1">
+        <v>-1709000000</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B79" s="1">
-        <v>-64000</v>
+        <v>523000</v>
       </c>
       <c r="C79" s="1">
-        <v>5277000</v>
+        <v>8815000</v>
       </c>
       <c r="D79" s="1">
-        <v>291000</v>
+        <v>902000</v>
       </c>
       <c r="E79" s="1">
-        <v>4006000</v>
+        <v>-212000</v>
       </c>
       <c r="F79" s="1">
-        <v>61432000</v>
+        <v>31859000</v>
       </c>
       <c r="G79" s="1">
-        <v>46530000</v>
+        <v>187821000</v>
       </c>
       <c r="H79" s="1">
-        <v>292396000</v>
+        <v>-243000</v>
       </c>
       <c r="I79" s="1">
-        <v>315911000</v>
-      </c>
-      <c r="J79" s="1">
-        <v>358924000</v>
-      </c>
-      <c r="K79" s="1">
-        <v>774791000</v>
-      </c>
-      <c r="L79" s="1">
-        <v>623476000</v>
-      </c>
-      <c r="M79" s="1">
-        <v>102567000</v>
-      </c>
-      <c r="N79" s="1">
-        <v>743000000</v>
-      </c>
-      <c r="O79" s="1">
-        <v>328000000</v>
-      </c>
-      <c r="P79" s="1">
-        <v>979000000</v>
+        <v>252781000</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="1">
+        <v>-64000</v>
+      </c>
+      <c r="C80" s="1">
+        <v>5277000</v>
+      </c>
+      <c r="D80" s="1">
+        <v>291000</v>
+      </c>
+      <c r="E80" s="1">
+        <v>4006000</v>
+      </c>
+      <c r="F80" s="1">
+        <v>61432000</v>
+      </c>
+      <c r="G80" s="1">
+        <v>46530000</v>
+      </c>
+      <c r="H80" s="1">
+        <v>292396000</v>
+      </c>
+      <c r="I80" s="1">
+        <v>315911000</v>
+      </c>
+      <c r="J80" s="1">
+        <v>358924000</v>
+      </c>
+      <c r="K80" s="1">
+        <v>774791000</v>
+      </c>
+      <c r="L80" s="1">
+        <v>623476000</v>
+      </c>
+      <c r="M80" s="1">
+        <v>102567000</v>
+      </c>
+      <c r="N80" s="1">
+        <v>743000000</v>
+      </c>
+      <c r="O80" s="1">
+        <v>328000000</v>
+      </c>
+      <c r="P80" s="1">
+        <v>979000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B81" s="1">
         <v>2385000</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C81" s="1">
         <v>5247000</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D81" s="1">
         <v>4084000</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E81" s="1">
         <v>5907000</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F81" s="1">
         <v>4812000</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G81" s="1">
         <v>8343000</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H81" s="1">
         <v>20193000</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I81" s="1">
         <v>105101000</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J81" s="1">
         <v>236864000</v>
       </c>
-      <c r="K80" s="1">
+      <c r="K81" s="1">
         <v>-36378000</v>
       </c>
-      <c r="L80" s="1">
+      <c r="L81" s="1">
         <v>294586000</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M81" s="1">
         <v>365868000</v>
       </c>
-      <c r="N80" s="1">
+      <c r="N81" s="1">
         <v>564000000</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O81" s="1">
         <v>1013000000</v>
       </c>
-      <c r="P80" s="1">
+      <c r="P81" s="1">
         <v>428000000</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+    <row r="82" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B82" s="10">
         <v>-53469000</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C82" s="10">
         <v>-52412000</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D82" s="10">
         <v>-80825000</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E82" s="10">
         <v>-127817000</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <v>-114364000</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G82" s="10">
         <v>-266081000</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H82" s="10">
         <v>257994000</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I82" s="10">
         <v>-57337000</v>
       </c>
-      <c r="J81" s="10">
+      <c r="J82" s="10">
         <v>-524499000</v>
       </c>
-      <c r="K81" s="10">
+      <c r="K82" s="10">
         <v>-123829000</v>
       </c>
-      <c r="L81" s="10">
+      <c r="L82" s="10">
         <v>-60654000</v>
       </c>
-      <c r="M81" s="10">
+      <c r="M82" s="10">
         <v>2097802000</v>
       </c>
-      <c r="N81" s="10">
+      <c r="N82" s="10">
         <v>2405000000</v>
       </c>
-      <c r="O81" s="10">
+      <c r="O82" s="10">
         <v>5943000000</v>
       </c>
-      <c r="P81" s="10">
+      <c r="P82" s="10">
         <v>11497000000</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="83" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B83" s="1">
         <v>-9802000</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C83" s="1">
         <v>-9630000</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D83" s="1">
         <v>-11884000</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E83" s="1">
         <v>-40203000</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F83" s="1">
         <v>-197896000</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G83" s="1">
         <v>-239228000</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H83" s="1">
         <v>-264224000</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I83" s="1">
         <v>-969885000</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J83" s="1">
         <v>-1634850000</v>
       </c>
-      <c r="K82" s="1">
+      <c r="K83" s="1">
         <v>-1440471000</v>
       </c>
-      <c r="L82" s="1">
+      <c r="L83" s="1">
         <v>-4081354000</v>
       </c>
-      <c r="M82" s="1">
+      <c r="M83" s="1">
         <v>-2319516000</v>
       </c>
-      <c r="N82" s="1">
+      <c r="N83" s="1">
         <v>-1437000000</v>
       </c>
-      <c r="O82" s="1">
+      <c r="O83" s="1">
         <v>-3232000000</v>
       </c>
-      <c r="P82" s="1">
+      <c r="P83" s="1">
         <v>-6514000000</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="84" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J83" s="1">
+      <c r="B84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J84" s="1">
         <v>-12260000</v>
       </c>
-      <c r="K83" s="1">
+      <c r="K84" s="1">
         <v>213523000</v>
       </c>
-      <c r="L83" s="1">
+      <c r="L84" s="1">
         <v>-114523000</v>
       </c>
-      <c r="M83" s="1">
+      <c r="M84" s="1">
         <v>-17912000</v>
       </c>
-      <c r="N83" s="1">
+      <c r="N84" s="1">
         <v>-45000000</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O84" s="1">
         <v>-13000000</v>
       </c>
-      <c r="P83" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="P84" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F84" s="1">
+      <c r="B85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="1">
         <v>-64952000</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G85" s="1">
         <v>-14992000</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I84" s="1">
+      <c r="H85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I85" s="1">
         <v>-205841000</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P84" s="1">
+      <c r="J85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P85" s="1">
         <v>-132000000</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+    <row r="86" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F85" s="1">
+      <c r="B86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" s="1">
         <v>40000000</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G86" s="1">
         <v>40000000</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I85" s="1">
+      <c r="H86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I86" s="1">
         <v>189131000</v>
       </c>
-      <c r="J85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K85" s="1">
+      <c r="J86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K86" s="1">
         <v>16667000</v>
       </c>
-      <c r="L85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="L86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B87" s="1">
         <v>40000</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C87" s="1">
         <v>-960000</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D87" s="1">
         <v>-2360000</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E87" s="1">
         <v>-140094000</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F87" s="1">
         <v>46920000</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G87" s="1">
         <v>7290000</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H87" s="1">
         <v>14807000</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I87" s="1">
         <v>-3849000</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J87" s="1">
         <v>-26441000</v>
       </c>
-      <c r="K86" s="1">
+      <c r="K87" s="1">
         <v>-206149000</v>
       </c>
-      <c r="L86" s="1">
+      <c r="L87" s="1">
         <v>-223090000</v>
       </c>
-      <c r="M86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N86" s="1">
+      <c r="M87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N87" s="1">
         <v>46000000</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O87" s="1">
         <v>113000000</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P87" s="1">
         <v>-1222000000</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+    <row r="88" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B88" s="10">
         <v>-9762000</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C88" s="10">
         <v>-10590000</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D88" s="10">
         <v>-14244000</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E88" s="10">
         <v>-180297000</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="10">
         <v>-175928000</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G88" s="10">
         <v>-206930000</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H88" s="10">
         <v>-249417000</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I88" s="10">
         <v>-990444000</v>
       </c>
-      <c r="J87" s="10">
+      <c r="J88" s="10">
         <v>-1673551000</v>
       </c>
-      <c r="K87" s="10">
+      <c r="K88" s="10">
         <v>-1416430000</v>
       </c>
-      <c r="L87" s="10">
+      <c r="L88" s="10">
         <v>-4418967000</v>
       </c>
-      <c r="M87" s="10">
+      <c r="M88" s="10">
         <v>-2337428000</v>
       </c>
-      <c r="N87" s="10">
+      <c r="N88" s="10">
         <v>-1436000000</v>
       </c>
-      <c r="O87" s="10">
+      <c r="O88" s="10">
         <v>-3132000000</v>
       </c>
-      <c r="P87" s="10">
+      <c r="P88" s="10">
         <v>-7868000000</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="89" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="1">
+      <c r="B89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="1">
         <v>-191000</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D89" s="1">
         <v>-322000</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E89" s="1">
         <v>-315000</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F89" s="1">
         <v>-416000</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G89" s="1">
         <v>-15542000</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H89" s="1">
         <v>-460762000</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I89" s="1">
         <v>-11179000</v>
       </c>
-      <c r="J88" s="1">
+      <c r="J89" s="1">
         <v>-203780000</v>
       </c>
-      <c r="K88" s="1">
+      <c r="K89" s="1">
         <v>-1904483000</v>
       </c>
-      <c r="L88" s="1">
+      <c r="L89" s="1">
         <v>-4263788000</v>
       </c>
-      <c r="M88" s="1">
+      <c r="M89" s="1">
         <v>-6087029000</v>
       </c>
-      <c r="N88" s="1">
+      <c r="N89" s="1">
         <v>-9871000000</v>
       </c>
-      <c r="O88" s="1">
+      <c r="O89" s="1">
         <v>-12201000000</v>
       </c>
-      <c r="P88" s="1">
+      <c r="P89" s="1">
         <v>-14615000000</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="90" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89" s="1">
+      <c r="B90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="1">
         <v>21000</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E89" s="1">
+      <c r="D90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" s="1">
         <v>268842000</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F90" s="1">
         <v>231468000</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G90" s="1">
         <v>221496000</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H90" s="1">
         <v>415000000</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J89" s="1">
+      <c r="I90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J90" s="1">
         <v>750000000</v>
       </c>
-      <c r="K89" s="1">
+      <c r="K90" s="1">
         <v>1701734000</v>
       </c>
-      <c r="L89" s="1">
+      <c r="L90" s="1">
         <v>400175000</v>
       </c>
-      <c r="M89" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N89" s="1">
+      <c r="M90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N90" s="1">
         <v>848000000</v>
       </c>
-      <c r="O89" s="1">
+      <c r="O90" s="1">
         <v>12269000000</v>
       </c>
-      <c r="P89" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="P90" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="B91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="B92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B93" s="1">
         <v>45041000</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C93" s="1">
         <v>55238000</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D93" s="1">
         <v>155741000</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E93" s="1">
         <v>69518000</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F93" s="1">
         <v>214948000</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G93" s="1">
         <v>213681000</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H93" s="1">
         <v>681184000</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I93" s="1">
         <v>2154309000</v>
       </c>
-      <c r="J92" s="1">
+      <c r="J93" s="1">
         <v>977303000</v>
       </c>
-      <c r="K92" s="1">
+      <c r="K93" s="1">
         <v>3946725000</v>
       </c>
-      <c r="L92" s="1">
+      <c r="L93" s="1">
         <v>8278477000</v>
       </c>
-      <c r="M92" s="1">
+      <c r="M93" s="1">
         <v>6660784000</v>
       </c>
-      <c r="N92" s="1">
+      <c r="N93" s="1">
         <v>10552000000</v>
       </c>
-      <c r="O92" s="1">
+      <c r="O93" s="1">
         <v>9905000000</v>
       </c>
-      <c r="P92" s="1">
+      <c r="P93" s="1">
         <v>9412000000</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+    <row r="94" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B94" s="10">
         <v>45041000</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C94" s="10">
         <v>55068000</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D94" s="10">
         <v>155419000</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E94" s="10">
         <v>338045000</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F94" s="10">
         <v>446000000</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G94" s="10">
         <v>419635000</v>
       </c>
-      <c r="H93" s="10">
+      <c r="H94" s="10">
         <v>635422000</v>
       </c>
-      <c r="I93" s="10">
+      <c r="I94" s="10">
         <v>2143130000</v>
       </c>
-      <c r="J93" s="10">
+      <c r="J94" s="10">
         <v>1523523000</v>
       </c>
-      <c r="K93" s="10">
+      <c r="K94" s="10">
         <v>3743976000</v>
       </c>
-      <c r="L93" s="10">
+      <c r="L94" s="10">
         <v>4414864000</v>
       </c>
-      <c r="M93" s="10">
+      <c r="M94" s="10">
         <v>573755000</v>
       </c>
-      <c r="N93" s="10">
+      <c r="N94" s="10">
         <v>1529000000</v>
       </c>
-      <c r="O93" s="10">
+      <c r="O94" s="10">
         <v>9973000000</v>
       </c>
-      <c r="P93" s="10">
+      <c r="P94" s="10">
         <v>-5203000000</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+    <row r="95" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I94" s="1">
+      <c r="B95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I95" s="1">
         <v>-35525000</v>
       </c>
-      <c r="J94" s="1">
+      <c r="J95" s="1">
         <v>-34278000</v>
       </c>
-      <c r="K94" s="1">
+      <c r="K95" s="1">
         <v>-7409000</v>
       </c>
-      <c r="L94" s="1">
+      <c r="L95" s="1">
         <v>39455000</v>
       </c>
-      <c r="M94" s="1">
+      <c r="M95" s="1">
         <v>-22700000</v>
       </c>
-      <c r="N94" s="1">
+      <c r="N95" s="1">
         <v>8000000</v>
       </c>
-      <c r="O94" s="1">
+      <c r="O95" s="1">
         <v>334000000</v>
       </c>
-      <c r="P94" s="1">
+      <c r="P95" s="1">
         <v>-183000000</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+    <row r="96" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B96" s="10">
         <v>-18190000</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C96" s="10">
         <v>-7934000</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D96" s="10">
         <v>60350000</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E96" s="10">
         <v>29931000</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F96" s="10">
         <v>155708000</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G96" s="10">
         <v>-53376000</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H96" s="10">
         <v>643999000</v>
       </c>
-      <c r="I95" s="10">
+      <c r="I96" s="10">
         <v>1059824000</v>
       </c>
-      <c r="J95" s="10">
+      <c r="J96" s="10">
         <v>-708805000</v>
       </c>
-      <c r="K95" s="10">
+      <c r="K96" s="10">
         <v>2196308000</v>
       </c>
-      <c r="L95" s="10">
+      <c r="L96" s="10">
         <v>-25302000</v>
       </c>
-      <c r="M95" s="10">
+      <c r="M96" s="10">
         <v>311429000</v>
       </c>
-      <c r="N95" s="10">
+      <c r="N96" s="10">
         <v>2506000000</v>
       </c>
-      <c r="O95" s="10">
+      <c r="O96" s="10">
         <v>13118000000</v>
       </c>
-      <c r="P95" s="10">
+      <c r="P96" s="10">
         <v>-1757000000</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+    <row r="97" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B97" s="1">
         <v>35401000</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C97" s="1">
         <v>17211000</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D97" s="1">
         <v>9277000</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E97" s="1">
         <v>69627000</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F97" s="1">
         <v>99558000</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G97" s="1">
         <v>255266000</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H97" s="1">
         <v>201890000</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I97" s="1">
         <v>845889000</v>
       </c>
-      <c r="J96" s="1">
+      <c r="J97" s="1">
         <v>1905713000</v>
       </c>
-      <c r="K96" s="1">
+      <c r="K97" s="1">
         <v>1196908000</v>
       </c>
-      <c r="L96" s="1">
+      <c r="L97" s="1">
         <v>3393216000</v>
       </c>
-      <c r="M96" s="1">
+      <c r="M97" s="1">
         <v>3964959000</v>
       </c>
-      <c r="N96" s="1">
+      <c r="N97" s="1">
         <v>4277000000</v>
       </c>
-      <c r="O96" s="1">
+      <c r="O97" s="1">
         <v>6783000000</v>
       </c>
-      <c r="P96" s="1">
+      <c r="P97" s="1">
         <v>19901000000</v>
       </c>
-      <c r="S96" s="44" t="s">
+      <c r="S97" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+    <row r="98" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B98" s="11">
         <v>17211000</v>
       </c>
-      <c r="C97" s="11">
+      <c r="C98" s="11">
         <v>9277000</v>
       </c>
-      <c r="D97" s="11">
+      <c r="D98" s="11">
         <v>69627000</v>
       </c>
-      <c r="E97" s="11">
+      <c r="E98" s="11">
         <v>99558000</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F98" s="11">
         <v>255266000</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G98" s="11">
         <v>201890000</v>
       </c>
-      <c r="H97" s="11">
+      <c r="H98" s="11">
         <v>845889000</v>
       </c>
-      <c r="I97" s="11">
+      <c r="I98" s="11">
         <v>1905713000</v>
       </c>
-      <c r="J97" s="11">
+      <c r="J98" s="11">
         <v>1196908000</v>
       </c>
-      <c r="K97" s="11">
+      <c r="K98" s="11">
         <v>3393216000</v>
       </c>
-      <c r="L97" s="11">
+      <c r="L98" s="11">
         <v>3367914000</v>
       </c>
-      <c r="M97" s="11">
+      <c r="M98" s="11">
         <v>4276388000</v>
       </c>
-      <c r="N97" s="11">
+      <c r="N98" s="11">
         <v>6783000000</v>
       </c>
-      <c r="O97" s="11">
+      <c r="O98" s="11">
         <v>19901000000</v>
       </c>
-      <c r="P97" s="11">
+      <c r="P98" s="11">
         <v>18144000000</v>
       </c>
-      <c r="Q97" s="20">
+      <c r="Q98" s="20">
         <v>1</v>
       </c>
-      <c r="R97" s="20">
+      <c r="R98" s="20">
         <v>2</v>
       </c>
-      <c r="S97" s="20">
+      <c r="S98" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+    <row r="99" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B99" s="1">
         <v>-63271000</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C99" s="1">
         <v>-62042000</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D99" s="1">
         <v>-92709000</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E99" s="1">
         <v>-168020000</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F99" s="1">
         <v>-312260000</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G99" s="1">
         <v>-505309000</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H99" s="1">
         <v>-6230000</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I99" s="1">
         <v>-1027222000</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J99" s="1">
         <v>-2159349000</v>
       </c>
-      <c r="K98" s="1">
+      <c r="K99" s="1">
         <v>-1564300000</v>
       </c>
-      <c r="L98" s="1">
+      <c r="L99" s="1">
         <v>-4142008000</v>
       </c>
-      <c r="M98" s="1">
+      <c r="M99" s="1">
         <v>-221714000</v>
       </c>
-      <c r="N98" s="1">
+      <c r="N99" s="1">
         <v>968000000</v>
       </c>
-      <c r="O98" s="1">
+      <c r="O99" s="1">
         <v>2701000000</v>
       </c>
-      <c r="P98" s="1">
+      <c r="P99" s="1">
         <v>3483000000</v>
       </c>
-      <c r="Q98" s="45">
-        <f>P98*(1+Q99)</f>
+      <c r="Q99" s="45">
+        <f>P99*(1+Q100)</f>
         <v>4493070000</v>
       </c>
-      <c r="R98" s="45">
-        <f>Q98*(1+R99)</f>
+      <c r="R99" s="45">
+        <f>Q99*(1+R100)</f>
         <v>5796060300</v>
       </c>
-      <c r="S98" s="45">
-        <f>(R98*(1+S99))/(U54-S99)</f>
+      <c r="S99" s="45">
+        <f>(R99*(1+S100))/(U55-S100)</f>
         <v>55127575365.34111</v>
       </c>
-      <c r="T98" s="22" t="s">
+      <c r="T99" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="16" t="e">
+        <f>(B99/A99)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C100" s="16">
+        <f t="shared" ref="C100:M100" si="4">(C99/B99)-1</f>
+        <v>-1.9424380837982591E-2</v>
+      </c>
+      <c r="D100" s="16">
+        <f t="shared" si="4"/>
+        <v>0.49429418780825896</v>
+      </c>
+      <c r="E100" s="16">
+        <f t="shared" si="4"/>
+        <v>0.81233752925821667</v>
+      </c>
+      <c r="F100" s="16">
+        <f t="shared" si="4"/>
+        <v>0.85846922985358876</v>
+      </c>
+      <c r="G100" s="16">
+        <f t="shared" si="4"/>
+        <v>0.61823160187023629</v>
+      </c>
+      <c r="H100" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.98767091027470322</v>
+      </c>
+      <c r="I100" s="16">
+        <f t="shared" si="4"/>
+        <v>163.88314606741574</v>
+      </c>
+      <c r="J100" s="16">
+        <f t="shared" si="4"/>
+        <v>1.1021249544889029</v>
+      </c>
+      <c r="K100" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.27556870149290369</v>
+      </c>
+      <c r="L100" s="16">
+        <f t="shared" si="4"/>
+        <v>1.6478348142939332</v>
+      </c>
+      <c r="M100" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.94647185616251828</v>
+      </c>
+      <c r="N100" s="17">
+        <f>(N99/M99)-1</f>
+        <v>-5.3659850077126388</v>
+      </c>
+      <c r="O100" s="17">
+        <f t="shared" ref="O100:P100" si="5">(O99/N99)-1</f>
+        <v>1.790289256198347</v>
+      </c>
+      <c r="P100" s="17">
+        <f t="shared" si="5"/>
+        <v>0.28952239911144018</v>
+      </c>
+      <c r="Q100" s="37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R100" s="37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S100" s="38">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T100" s="18">
+        <f>(P100+O100+N100+M100+L100)/5</f>
+        <v>-0.51696207885428735</v>
+      </c>
+      <c r="U100" s="42"/>
+      <c r="V100" s="39"/>
+      <c r="W100" s="39"/>
+      <c r="X100" s="40"/>
+      <c r="Y100" s="43"/>
+      <c r="Z100" s="39"/>
+      <c r="AA100" s="39"/>
+      <c r="AB100" s="40"/>
+      <c r="AC100" s="18"/>
+    </row>
+    <row r="101" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="46" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="99" spans="1:29" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B99" s="16" t="e">
-        <f>(B98/A98)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C99" s="16">
-        <f t="shared" ref="C99:M99" si="2">(C98/B98)-1</f>
-        <v>-1.9424380837982591E-2</v>
-      </c>
-      <c r="D99" s="16">
-        <f t="shared" si="2"/>
-        <v>0.49429418780825896</v>
-      </c>
-      <c r="E99" s="16">
-        <f t="shared" si="2"/>
-        <v>0.81233752925821667</v>
-      </c>
-      <c r="F99" s="16">
-        <f t="shared" si="2"/>
-        <v>0.85846922985358876</v>
-      </c>
-      <c r="G99" s="16">
-        <f t="shared" si="2"/>
-        <v>0.61823160187023629</v>
-      </c>
-      <c r="H99" s="16">
-        <f t="shared" si="2"/>
-        <v>-0.98767091027470322</v>
-      </c>
-      <c r="I99" s="16">
-        <f t="shared" si="2"/>
-        <v>163.88314606741574</v>
-      </c>
-      <c r="J99" s="16">
-        <f t="shared" si="2"/>
-        <v>1.1021249544889029</v>
-      </c>
-      <c r="K99" s="16">
-        <f t="shared" si="2"/>
-        <v>-0.27556870149290369</v>
-      </c>
-      <c r="L99" s="16">
-        <f t="shared" si="2"/>
-        <v>1.6478348142939332</v>
-      </c>
-      <c r="M99" s="16">
-        <f t="shared" si="2"/>
-        <v>-0.94647185616251828</v>
-      </c>
-      <c r="N99" s="17">
-        <f>(N98/M98)-1</f>
-        <v>-5.3659850077126388</v>
-      </c>
-      <c r="O99" s="17">
-        <f t="shared" ref="O99:U99" si="3">(O98/N98)-1</f>
-        <v>1.790289256198347</v>
-      </c>
-      <c r="P99" s="17">
-        <f t="shared" si="3"/>
-        <v>0.28952239911144018</v>
-      </c>
-      <c r="Q99" s="37">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="R99" s="37">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="S99" s="38">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="T99" s="18">
-        <f>(P99+O99+N99+M99+L99)/5</f>
-        <v>-0.51696207885428735</v>
-      </c>
-      <c r="U99" s="42"/>
-      <c r="V99" s="39"/>
-      <c r="W99" s="39"/>
-      <c r="X99" s="40"/>
-      <c r="Y99" s="43"/>
-      <c r="Z99" s="39"/>
-      <c r="AA99" s="39"/>
-      <c r="AB99" s="40"/>
-      <c r="AC99" s="18"/>
-    </row>
-    <row r="100" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A100" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q100" s="1">
-        <f>Q98/(1+$AD$54)^Q97</f>
-        <v>4493070000</v>
-      </c>
-      <c r="R100" s="1">
-        <f>R98/(1+$AD$54)^R97</f>
-        <v>5796060300</v>
-      </c>
-      <c r="S100" s="1">
-        <f>S98/(1+$AD$54)^S97</f>
-        <v>55127575365.34111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="P102" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q102" s="47">
-        <f>SUM(Q100:S100)</f>
-        <v>65416705665.34111</v>
+      <c r="Q101" s="1">
+        <f>Q99/(1+$U$55)^Q98</f>
+        <v>3966453787.1455264</v>
+      </c>
+      <c r="R101" s="1">
+        <f>R99/(1+$U$55)^R98</f>
+        <v>4517012818.1341057</v>
+      </c>
+      <c r="S101" s="1">
+        <f>S99/(1+$U$55)^S98</f>
+        <v>42962279836.512352</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P103" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q103" s="47">
+        <f>SUM(Q101:S101)</f>
+        <v>51445746441.791985</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P104" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q104" s="47">
+        <f>U50</f>
+        <v>6834000000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P105" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="Q103" s="47">
-        <f>U49</f>
-        <v>6834000000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="P104" s="48" t="s">
+      <c r="Q105" s="48">
+        <f>P36</f>
+        <v>17707000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P106" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="Q104" s="48">
-        <f>P35</f>
-        <v>17707000000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="P105" s="49" t="s">
+      <c r="Q106" s="49">
+        <f>Q103-Q104+Q105</f>
+        <v>62318746441.791985</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P107" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="Q105" s="49">
-        <f>Q102-Q103+Q104</f>
-        <v>76289705665.34111</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="P106" s="48" t="s">
+      <c r="Q107" s="48">
+        <v>3130000000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P108" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="Q106" s="48">
-        <v>3130000000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="P107" s="50" t="s">
+      <c r="Q108" s="51">
+        <f>Q106/Q107</f>
+        <v>19.91014263316038</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="P109" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="Q107" s="51">
-        <f>Q105/Q106</f>
-        <v>24.373707880300675</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="P108" s="52" t="s">
+      <c r="Q109" s="53">
+        <v>214.44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P110" s="52"/>
+      <c r="Q110" s="53"/>
+    </row>
+    <row r="111" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="P111" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="Q108" s="53">
-        <v>214.44</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="P109" s="52"/>
-      <c r="Q109" s="53"/>
-    </row>
-    <row r="110" spans="1:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="P110" s="54" t="s">
+      <c r="Q111" s="55" t="str">
+        <f>IF(Q108&gt;Q109, "BUY", "SELL")</f>
+        <v>SELL</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="P112" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="Q110" s="55" t="str">
-        <f>IF(Q107&gt;Q108, "BUY", "SELL")</f>
-        <v>SELL</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29" ht="34" x14ac:dyDescent="0.2">
-      <c r="P111" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q111" s="56">
-        <f>(Q107/Q108)-1</f>
-        <v>-0.88633786662795799</v>
+      <c r="Q112" s="56">
+        <f>(Q108/Q109)-1</f>
+        <v>-0.90715285099253695</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/TSLA" display="ROIC.AI | TSLA" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B31" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B69" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C31" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C69" r:id="rId5" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D31" r:id="rId6" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D69" r:id="rId7" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E31" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312511054847/0001193125-11-054847-index.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E69" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312511054847/0001193125-11-054847-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F31" r:id="rId10" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312512081990/0001193125-12-081990-index.htm" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F69" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312512081990/0001193125-12-081990-index.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G31" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312513096241/0001193125-13-096241-index.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G69" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312513096241/0001193125-13-096241-index.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H31" r:id="rId14" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312514069681/0001193125-14-069681-index.htm" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H69" r:id="rId15" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312514069681/0001193125-14-069681-index.htm" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I31" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459015001031/0001564590-15-001031-index.htm" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I69" r:id="rId17" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459015001031/0001564590-15-001031-index.htm" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J31" r:id="rId18" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459016013195/0001564590-16-013195-index.htm" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J69" r:id="rId19" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459016013195/0001564590-16-013195-index.htm" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K31" r:id="rId20" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459017003118/0001564590-17-003118-index.htm" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K69" r:id="rId21" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459017003118/0001564590-17-003118-index.htm" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L31" r:id="rId22" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459018002956/0001564590-18-002956-index.htm" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="L69" r:id="rId23" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459018002956/0001564590-18-002956-index.htm" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M31" r:id="rId24" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459019003165/0001564590-19-003165-index.htm" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M69" r:id="rId25" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459019003165/0001564590-19-003165-index.htm" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="N31" r:id="rId26" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459020004475/0001564590-20-004475-index.htm" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="N69" r:id="rId27" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459020004475/0001564590-20-004475-index.htm" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="O31" r:id="rId28" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459021004599/0001564590-21-004599-index.htm" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="O69" r:id="rId29" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459021004599/0001564590-21-004599-index.htm" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="P31" r:id="rId30" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017022000796/0000950170-22-000796-index.htm" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="P69" r:id="rId31" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017022000796/0000950170-22-000796-index.htm" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B32" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B70" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C32" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C70" r:id="rId5" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D32" r:id="rId6" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D70" r:id="rId7" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E32" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312511054847/0001193125-11-054847-index.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E70" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312511054847/0001193125-11-054847-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F32" r:id="rId10" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312512081990/0001193125-12-081990-index.htm" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F70" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312512081990/0001193125-12-081990-index.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G32" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312513096241/0001193125-13-096241-index.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G70" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312513096241/0001193125-13-096241-index.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H32" r:id="rId14" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312514069681/0001193125-14-069681-index.htm" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H70" r:id="rId15" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312514069681/0001193125-14-069681-index.htm" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I32" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459015001031/0001564590-15-001031-index.htm" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I70" r:id="rId17" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459015001031/0001564590-15-001031-index.htm" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J32" r:id="rId18" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459016013195/0001564590-16-013195-index.htm" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J70" r:id="rId19" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459016013195/0001564590-16-013195-index.htm" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K32" r:id="rId20" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459017003118/0001564590-17-003118-index.htm" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K70" r:id="rId21" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459017003118/0001564590-17-003118-index.htm" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L32" r:id="rId22" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459018002956/0001564590-18-002956-index.htm" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L70" r:id="rId23" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459018002956/0001564590-18-002956-index.htm" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M32" r:id="rId24" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459019003165/0001564590-19-003165-index.htm" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M70" r:id="rId25" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459019003165/0001564590-19-003165-index.htm" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N32" r:id="rId26" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459020004475/0001564590-20-004475-index.htm" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N70" r:id="rId27" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459020004475/0001564590-20-004475-index.htm" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="O32" r:id="rId28" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459021004599/0001564590-21-004599-index.htm" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O70" r:id="rId29" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459021004599/0001564590-21-004599-index.htm" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="P32" r:id="rId30" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017022000796/0000950170-22-000796-index.htm" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="P70" r:id="rId31" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017022000796/0000950170-22-000796-index.htm" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
